--- a/biology/Zoologie/Calinaga/Calinaga.xlsx
+++ b/biology/Zoologie/Calinaga/Calinaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calinaga est un genre de lépidoptères asiatiques de la famille des Nymphalidae, l'unique genre de la sous-famille des Calinaginae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Calinaga a été décrit par l'entomologiste britannique Frederic Moore en 1857.
-La systématique de ce taxon énigmatique a longtemps été un sujet de débat. Kirby a d'abord placé ses espèces dans la famille des Papilionidae en 1871, avant de placer le genre dans la famille des Nymphalidae en 1877. En 1895, Moore a créé pour lui la sous-famille des Calinaginae, dont il est actuellement l'unique genre. Son placement par rapport aux autres Nymphalidae actuels s'est précisé au cours du XXe siècle grâce à des critères morphologiques, puis au début du XXIe siècle grâce à la phylogénétique moléculaire[1].
+La systématique de ce taxon énigmatique a longtemps été un sujet de débat. Kirby a d'abord placé ses espèces dans la famille des Papilionidae en 1871, avant de placer le genre dans la famille des Nymphalidae en 1877. En 1895, Moore a créé pour lui la sous-famille des Calinaginae, dont il est actuellement l'unique genre. Son placement par rapport aux autres Nymphalidae actuels s'est précisé au cours du XXe siècle grâce à des critères morphologiques, puis au début du XXIe siècle grâce à la phylogénétique moléculaire.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calinaga buddha Moore, 1857 ;
 Calinaga buddha avalokita Fruhstorfer, 1914 ;
